--- a/Planning/Planning02.xlsx
+++ b/Planning/Planning02.xlsx
@@ -5,11 +5,11 @@
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gregory/Desktop/hes-so/3 eme/Projet de semestre/SAS/SAS/Planning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gregory/Desktop/hes-so/3 eme/Projet de semestre/PS2/SAS/Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="33600" windowHeight="19620"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19620"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -823,6 +823,60 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -842,64 +896,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1215,7 +1215,7 @@
   <dimension ref="A2:AE149"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A18"/>
+      <selection activeCell="F29" sqref="F29:Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1235,53 +1235,53 @@
     </row>
     <row r="3" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="46" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="46" t="s">
+      <c r="I4" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="46" t="s">
+      <c r="J4" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="46" t="s">
+      <c r="K4" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="48" t="s">
+      <c r="L4" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="46" t="s">
+      <c r="M4" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="46" t="s">
+      <c r="N4" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="46" t="s">
+      <c r="O4" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="46" t="s">
+      <c r="P4" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="46" t="s">
+      <c r="Q4" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="46" t="s">
+      <c r="R4" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="S4" s="46" t="s">
+      <c r="S4" s="45" t="s">
         <v>32</v>
       </c>
       <c r="T4" s="9"/>
@@ -1290,86 +1290,86 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
       <c r="T5" s="9"/>
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" s="53"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
       <c r="W6" s="9"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A7" s="53"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="47"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="46"/>
       <c r="T7" s="9"/>
       <c r="U7" s="9"/>
       <c r="V7" s="9"/>
       <c r="W7" s="9"/>
     </row>
     <row r="8" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="56"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="58"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="48"/>
       <c r="F8" s="10" t="s">
         <v>6</v>
       </c>
@@ -1418,15 +1418,15 @@
       <c r="W8" s="9"/>
     </row>
     <row r="9" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
       <c r="F9" s="13"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
@@ -1440,7 +1440,7 @@
       <c r="P9" s="15"/>
       <c r="Q9" s="15"/>
       <c r="R9" s="26"/>
-      <c r="S9" s="43" t="s">
+      <c r="S9" s="50" t="s">
         <v>41</v>
       </c>
       <c r="T9" s="9"/>
@@ -1449,16 +1449,16 @@
       <c r="W9" s="9"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" s="44"/>
-      <c r="B10" s="53" t="s">
+      <c r="A10" s="51"/>
+      <c r="B10" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
       <c r="F10" s="16"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="62"/>
+      <c r="H10" s="37"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
@@ -1469,20 +1469,20 @@
       <c r="P10" s="12"/>
       <c r="Q10" s="12"/>
       <c r="R10" s="27"/>
-      <c r="S10" s="44"/>
+      <c r="S10" s="51"/>
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
       <c r="V10" s="9"/>
       <c r="W10" s="9"/>
     </row>
     <row r="11" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="44"/>
-      <c r="B11" s="53" t="s">
+      <c r="A11" s="51"/>
+      <c r="B11" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
       <c r="F11" s="16"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
@@ -1496,16 +1496,16 @@
       <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
       <c r="R11" s="27"/>
-      <c r="S11" s="44"/>
+      <c r="S11" s="51"/>
     </row>
     <row r="12" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="44"/>
-      <c r="B12" s="53" t="s">
+      <c r="A12" s="51"/>
+      <c r="B12" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="55"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="40"/>
       <c r="F12" s="19"/>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
@@ -1519,16 +1519,16 @@
       <c r="P12" s="21"/>
       <c r="Q12" s="21"/>
       <c r="R12" s="28"/>
-      <c r="S12" s="44"/>
+      <c r="S12" s="51"/>
     </row>
     <row r="13" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="44"/>
-      <c r="B13" s="53" t="s">
+      <c r="A13" s="51"/>
+      <c r="B13" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="55"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="40"/>
       <c r="F13" s="19"/>
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
@@ -1542,16 +1542,16 @@
       <c r="P13" s="21"/>
       <c r="Q13" s="21"/>
       <c r="R13" s="28"/>
-      <c r="S13" s="44"/>
+      <c r="S13" s="51"/>
     </row>
     <row r="14" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
-      <c r="B14" s="56" t="s">
+      <c r="A14" s="52"/>
+      <c r="B14" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
       <c r="F14" s="19"/>
       <c r="G14" s="20" t="s">
         <v>51</v>
@@ -1569,22 +1569,22 @@
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
       <c r="R14" s="28"/>
-      <c r="S14" s="44"/>
+      <c r="S14" s="51"/>
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
       <c r="V14" s="9"/>
       <c r="W14" s="9"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
       <c r="F15" s="22"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
@@ -1598,20 +1598,20 @@
       <c r="P15" s="15"/>
       <c r="Q15" s="15"/>
       <c r="R15" s="26"/>
-      <c r="S15" s="44"/>
+      <c r="S15" s="51"/>
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
       <c r="V15" s="9"/>
       <c r="W15" s="9"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A16" s="44"/>
-      <c r="B16" s="53" t="s">
+      <c r="A16" s="51"/>
+      <c r="B16" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
       <c r="F16" s="16"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
@@ -1625,20 +1625,20 @@
       <c r="P16" s="12"/>
       <c r="Q16" s="12"/>
       <c r="R16" s="27"/>
-      <c r="S16" s="44"/>
+      <c r="S16" s="51"/>
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
       <c r="V16" s="9"/>
       <c r="W16" s="9"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A17" s="44"/>
-      <c r="B17" s="53" t="s">
+      <c r="A17" s="51"/>
+      <c r="B17" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
       <c r="F17" s="16"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
@@ -1652,18 +1652,18 @@
       <c r="P17" s="12"/>
       <c r="Q17" s="12"/>
       <c r="R17" s="27"/>
-      <c r="S17" s="44"/>
+      <c r="S17" s="51"/>
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
       <c r="V17" s="9"/>
       <c r="W17" s="9"/>
     </row>
     <row r="18" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
       <c r="F18" s="19"/>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
@@ -1677,22 +1677,22 @@
       <c r="P18" s="21"/>
       <c r="Q18" s="21"/>
       <c r="R18" s="28"/>
-      <c r="S18" s="44"/>
+      <c r="S18" s="51"/>
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
       <c r="V18" s="9"/>
       <c r="W18" s="9"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
       <c r="F19" s="22"/>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
@@ -1706,20 +1706,20 @@
       <c r="P19" s="15"/>
       <c r="Q19" s="15"/>
       <c r="R19" s="26"/>
-      <c r="S19" s="44"/>
+      <c r="S19" s="51"/>
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="44"/>
-      <c r="B20" s="53" t="s">
+      <c r="A20" s="51"/>
+      <c r="B20" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
       <c r="F20" s="16"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
@@ -1733,20 +1733,20 @@
       <c r="P20" s="31"/>
       <c r="Q20" s="12"/>
       <c r="R20" s="27"/>
-      <c r="S20" s="44"/>
+      <c r="S20" s="51"/>
       <c r="T20" s="9"/>
       <c r="U20" s="9"/>
       <c r="V20" s="9"/>
       <c r="W20" s="9"/>
     </row>
     <row r="21" spans="1:24" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="44"/>
-      <c r="B21" s="53" t="s">
+      <c r="A21" s="51"/>
+      <c r="B21" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
       <c r="F21" s="16"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
@@ -1764,18 +1764,18 @@
       <c r="R21" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S21" s="44"/>
+      <c r="S21" s="51"/>
       <c r="T21" s="9"/>
       <c r="U21" s="9"/>
       <c r="V21" s="9"/>
       <c r="W21" s="9"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A22" s="44"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
       <c r="F22" s="16"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
@@ -1789,18 +1789,18 @@
       <c r="P22" s="12"/>
       <c r="Q22" s="12"/>
       <c r="R22" s="27"/>
-      <c r="S22" s="44"/>
+      <c r="S22" s="51"/>
       <c r="T22" s="9"/>
       <c r="U22" s="9"/>
       <c r="V22" s="9"/>
       <c r="W22" s="9"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A23" s="44"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
       <c r="F23" s="16"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
@@ -1814,18 +1814,18 @@
       <c r="P23" s="12"/>
       <c r="Q23" s="12"/>
       <c r="R23" s="27"/>
-      <c r="S23" s="44"/>
+      <c r="S23" s="51"/>
       <c r="T23" s="9"/>
       <c r="U23" s="9"/>
       <c r="V23" s="9"/>
       <c r="W23" s="9"/>
     </row>
     <row r="24" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
       <c r="F24" s="19"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -1839,22 +1839,22 @@
       <c r="P24" s="21"/>
       <c r="Q24" s="21"/>
       <c r="R24" s="28"/>
-      <c r="S24" s="44"/>
+      <c r="S24" s="51"/>
       <c r="T24" s="9"/>
       <c r="U24" s="9"/>
       <c r="V24" s="9"/>
       <c r="W24" s="9"/>
     </row>
     <row r="25" spans="1:24" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="52"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="47"/>
       <c r="F25" s="22"/>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
@@ -1868,16 +1868,16 @@
       <c r="P25" s="32"/>
       <c r="Q25" s="32"/>
       <c r="R25" s="26"/>
-      <c r="S25" s="44"/>
+      <c r="S25" s="51"/>
     </row>
     <row r="26" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="44"/>
-      <c r="B26" s="53" t="s">
+      <c r="A26" s="51"/>
+      <c r="B26" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="55"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="40"/>
       <c r="F26" s="16"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
@@ -1891,14 +1891,14 @@
       <c r="P26" s="33"/>
       <c r="Q26" s="33"/>
       <c r="R26" s="27"/>
-      <c r="S26" s="44"/>
+      <c r="S26" s="51"/>
     </row>
     <row r="27" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="44"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="55"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="40"/>
       <c r="F27" s="16"/>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
@@ -1912,14 +1912,14 @@
       <c r="P27" s="12"/>
       <c r="Q27" s="12"/>
       <c r="R27" s="27"/>
-      <c r="S27" s="44"/>
+      <c r="S27" s="51"/>
     </row>
     <row r="28" spans="1:24" s="9" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="58"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="48"/>
       <c r="F28" s="17"/>
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
@@ -1933,34 +1933,34 @@
       <c r="P28" s="18"/>
       <c r="Q28" s="18"/>
       <c r="R28" s="29"/>
-      <c r="S28" s="44"/>
+      <c r="S28" s="51"/>
     </row>
     <row r="29" spans="1:24" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="39"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="57"/>
       <c r="R29" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="S29" s="45"/>
+      <c r="S29" s="52"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="I30" s="2"/>
@@ -4939,16 +4939,22 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F29:Q29"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="S9:S29"/>
+    <mergeCell ref="S4:S7"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="L4:L7"/>
+    <mergeCell ref="M4:M7"/>
+    <mergeCell ref="N4:N7"/>
+    <mergeCell ref="O4:O7"/>
+    <mergeCell ref="P4:P7"/>
+    <mergeCell ref="Q4:Q7"/>
+    <mergeCell ref="R4:R7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="I4:I7"/>
     <mergeCell ref="J4:J7"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="B26:E26"/>
@@ -4965,22 +4971,16 @@
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F29:Q29"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="S9:S29"/>
-    <mergeCell ref="S4:S7"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="L4:L7"/>
-    <mergeCell ref="M4:M7"/>
-    <mergeCell ref="N4:N7"/>
-    <mergeCell ref="O4:O7"/>
-    <mergeCell ref="P4:P7"/>
-    <mergeCell ref="Q4:Q7"/>
-    <mergeCell ref="R4:R7"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75000000000000011" bottom="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
